--- a/Project Outputs for DDS/BOM.xlsx
+++ b/Project Outputs for DDS/BOM.xlsx
@@ -483,7 +483,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>11</v>

--- a/Project Outputs for DDS/BOM.xlsx
+++ b/Project Outputs for DDS/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Desktop\DDS\Project Outputs for DDS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry\Desktop\DDS\Project Outputs for DDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D28A05AA-C718-42C7-BBC5-57E6AD8A94D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD958D3B-9F4E-40FA-80EF-01C2B642D3C6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5010" yWindow="2040" windowWidth="21600" windowHeight="11295" xr2:uid="{A0CFC330-3B8A-4ED7-A5A8-43ED04D5FE7F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15855" windowHeight="14265" xr2:uid="{1E202809-6265-401B-AB31-4F440DB4F14F}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -18,25 +18,17 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">BOM!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
   <si>
     <t>Designator</t>
   </si>
@@ -65,19 +57,97 @@
     <t>CAP 0603_1608</t>
   </si>
   <si>
-    <t>D1, X3</t>
-  </si>
-  <si>
-    <t>Вилка штыревая</t>
-  </si>
-  <si>
-    <t>PINS, 4PIN</t>
-  </si>
-  <si>
-    <t>?, https://www.chipdip.ru/product/pls-4</t>
-  </si>
-  <si>
-    <t>D2</t>
+    <t>R1, R2, R3, R4, R5, R6, R7, R8</t>
+  </si>
+  <si>
+    <t>Resistor</t>
+  </si>
+  <si>
+    <t>R_0805_T0.4</t>
+  </si>
+  <si>
+    <t>ZQ1, ZQ2</t>
+  </si>
+  <si>
+    <t>Quartz resonator</t>
+  </si>
+  <si>
+    <t>QUARTZ TEMPORARY</t>
+  </si>
+  <si>
+    <t>DD2</t>
+  </si>
+  <si>
+    <t>DAC</t>
+  </si>
+  <si>
+    <t>AD9760ARUZ50</t>
+  </si>
+  <si>
+    <t>https://www.chipdip.ru/product/ad9760aruz50</t>
+  </si>
+  <si>
+    <t>DD6</t>
+  </si>
+  <si>
+    <t>FPGA</t>
+  </si>
+  <si>
+    <t>Altera II EPM240T100C3</t>
+  </si>
+  <si>
+    <t>QFP50P1600X1600X120-100N</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/Intel-Altera/EPM240T100C3?qs=jblrfmjbeiFZviQiVyzREw%3D%3D</t>
+  </si>
+  <si>
+    <t>DA1</t>
+  </si>
+  <si>
+    <t>Стабилизатор</t>
+  </si>
+  <si>
+    <t>AMS1117-3.3</t>
+  </si>
+  <si>
+    <t>AMS1117-3.3 GENERATED</t>
+  </si>
+  <si>
+    <t>https://www.chipdip.ru/product/ams1117-3.3</t>
+  </si>
+  <si>
+    <t>DD3</t>
+  </si>
+  <si>
+    <t>UART INTERFACE</t>
+  </si>
+  <si>
+    <t>CH340G</t>
+  </si>
+  <si>
+    <t>CH340G GENERATED</t>
+  </si>
+  <si>
+    <t>https://cdn.sparkfun.com/datasheets/Dev/Arduino/Other/CH340DS1.PDF</t>
+  </si>
+  <si>
+    <t>DD4</t>
+  </si>
+  <si>
+    <t>FLASH Memory</t>
+  </si>
+  <si>
+    <t>EPCS16SI8N</t>
+  </si>
+  <si>
+    <t>FLASH</t>
+  </si>
+  <si>
+    <t>https://www.chipdip.ru/product/epcs16si8n</t>
+  </si>
+  <si>
+    <t>G1</t>
   </si>
   <si>
     <t>FPGA Quartz Generator</t>
@@ -89,19 +159,64 @@
     <t>CAC-508P730X490-4N</t>
   </si>
   <si>
-    <t>DA1</t>
-  </si>
-  <si>
-    <t>Стабилизатор</t>
-  </si>
-  <si>
-    <t>AMS1117-3.3</t>
-  </si>
-  <si>
-    <t>AMS1117-3.3 GENERATED</t>
-  </si>
-  <si>
-    <t>https://www.chipdip.ru/product/ams1117-3.3</t>
+    <t>XW1</t>
+  </si>
+  <si>
+    <t>СВЧ разъем</t>
+  </si>
+  <si>
+    <t>KLS1-SMA002-B</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>https://www.chipdip.ru/product/kls1-sma002-b-sma-jr</t>
+  </si>
+  <si>
+    <t>XP2</t>
+  </si>
+  <si>
+    <t>Вилка штыревая 10PIN</t>
+  </si>
+  <si>
+    <t>PLD-10 (DS1021-2x5)</t>
+  </si>
+  <si>
+    <t>PINS</t>
+  </si>
+  <si>
+    <t>https://www.chipdip.ru/product/pld-10</t>
+  </si>
+  <si>
+    <t>XP1</t>
+  </si>
+  <si>
+    <t>Вилка штыревая 4PIN</t>
+  </si>
+  <si>
+    <t>PLS-4 (DS-1021-1x4)</t>
+  </si>
+  <si>
+    <t>4PIN</t>
+  </si>
+  <si>
+    <t>https://www.chipdip.ru/product/pls-4</t>
+  </si>
+  <si>
+    <t>DD5</t>
+  </si>
+  <si>
+    <t>Controller</t>
+  </si>
+  <si>
+    <t>STM32F446RET6</t>
+  </si>
+  <si>
+    <t>LQFP-48</t>
+  </si>
+  <si>
+    <t>https://www.chipdip.ru/product/stm32f446ret6</t>
   </si>
   <si>
     <t>DD1</t>
@@ -116,78 +231,6 @@
     <t>No link</t>
   </si>
   <si>
-    <t>DD2</t>
-  </si>
-  <si>
-    <t>DAC</t>
-  </si>
-  <si>
-    <t>AD9760ARUZ50</t>
-  </si>
-  <si>
-    <t>https://www.chipdip.ru/product/ad9760aruz50</t>
-  </si>
-  <si>
-    <t>DD3</t>
-  </si>
-  <si>
-    <t>UART INTERFACE</t>
-  </si>
-  <si>
-    <t>CH340G</t>
-  </si>
-  <si>
-    <t>CH340G GENERATED</t>
-  </si>
-  <si>
-    <t>https://cdn.sparkfun.com/datasheets/Dev/Arduino/Other/CH340DS1.PDF</t>
-  </si>
-  <si>
-    <t>DD4</t>
-  </si>
-  <si>
-    <t>FLASH Memory</t>
-  </si>
-  <si>
-    <t>EPCS16SI8N</t>
-  </si>
-  <si>
-    <t>FLASH</t>
-  </si>
-  <si>
-    <t>https://www.chipdip.ru/product/epcs16si8n</t>
-  </si>
-  <si>
-    <t>DD5</t>
-  </si>
-  <si>
-    <t>Controller</t>
-  </si>
-  <si>
-    <t>STM32F446RET6</t>
-  </si>
-  <si>
-    <t>LQFP-48</t>
-  </si>
-  <si>
-    <t>https://www.chipdip.ru/product/stm32f446ret6</t>
-  </si>
-  <si>
-    <t>DD6</t>
-  </si>
-  <si>
-    <t>FPGA</t>
-  </si>
-  <si>
-    <t>Altera II EPM240T100C3</t>
-  </si>
-  <si>
-    <t>QFP50P1600X1600X120-100N</t>
-  </si>
-  <si>
-    <t>https://eu.mouser.com/ProductDetail/Intel-Altera/EPM240T100C3?qs=jblrfmjbeiFZviQiVyzREw%3D%3D</t>
-  </si>
-  <si>
     <t>DD7</t>
   </si>
   <si>
@@ -201,33 +244,6 @@
   </si>
   <si>
     <t>https://www.chipdip.ru/product/w9812g6kh-6-tray</t>
-  </si>
-  <si>
-    <t>FU1</t>
-  </si>
-  <si>
-    <t>Предохранитель</t>
-  </si>
-  <si>
-    <t>FUSE</t>
-  </si>
-  <si>
-    <t>R1, R2, R3, R4, R5, R6, R7, R8</t>
-  </si>
-  <si>
-    <t>Resistor</t>
-  </si>
-  <si>
-    <t>R_0805_T0.4</t>
-  </si>
-  <si>
-    <t>X1, X2</t>
-  </si>
-  <si>
-    <t>Quartz resonator</t>
-  </si>
-  <si>
-    <t>QUARTZ TEMPORARY</t>
   </si>
 </sst>
 </file>
@@ -292,7 +308,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -308,9 +324,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -348,7 +364,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -454,7 +470,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -603,14 +619,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66DCB263-FD60-4B40-B862-1625D645EDAA}">
-  <dimension ref="A1:E15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12AEBFDE-FAA0-4666-8F4C-C5F8723ADF62}">
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" customWidth="1"/>
     <col min="2" max="4" width="16.5703125" customWidth="1"/>
     <col min="5" max="5" width="30.85546875" customWidth="1"/>
   </cols>
@@ -663,177 +679,177 @@
         <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -844,34 +860,51 @@
         <v>59</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>7</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Project Outputs for DDS/BOM.xlsx
+++ b/Project Outputs for DDS/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry\Desktop\DDS\Project Outputs for DDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD958D3B-9F4E-40FA-80EF-01C2B642D3C6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BF7352E-0E4F-4821-AC70-E3B42A2639F4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15855" windowHeight="14265" xr2:uid="{1E202809-6265-401B-AB31-4F440DB4F14F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15855" windowHeight="14265" xr2:uid="{C55AC94D-F0E6-48DB-80A2-456527D2BF1E}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="79">
   <si>
     <t>Designator</t>
   </si>
@@ -57,7 +57,7 @@
     <t>CAP 0603_1608</t>
   </si>
   <si>
-    <t>R1, R2, R3, R4, R5, R6, R7, R8</t>
+    <t>R1, R2, R3, R4, R5, R6</t>
   </si>
   <si>
     <t>Resistor</t>
@@ -66,70 +66,91 @@
     <t>R_0805_T0.4</t>
   </si>
   <si>
-    <t>ZQ1, ZQ2</t>
+    <t>DD2</t>
+  </si>
+  <si>
+    <t>DAC</t>
+  </si>
+  <si>
+    <t>AD9760ARUZ50</t>
+  </si>
+  <si>
+    <t>https://www.chipdip.ru/product/ad9760aruz50</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>Transformer</t>
+  </si>
+  <si>
+    <t>ALT3232M-151-T001</t>
+  </si>
+  <si>
+    <t>transformer</t>
+  </si>
+  <si>
+    <t>https://www.chipdip.ru/product/alt3232m-151-t001-2</t>
+  </si>
+  <si>
+    <t>DD6</t>
+  </si>
+  <si>
+    <t>FPGA</t>
+  </si>
+  <si>
+    <t>Altera II EPM240T100C3</t>
+  </si>
+  <si>
+    <t>QFP50P1600X1600X120-100N</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/Intel-Altera/EPM240T100C3?qs=jblrfmjbeiFZviQiVyzREw%3D%3D</t>
+  </si>
+  <si>
+    <t>DA1</t>
+  </si>
+  <si>
+    <t>Стабилизатор</t>
+  </si>
+  <si>
+    <t>AMS1117-3.3</t>
+  </si>
+  <si>
+    <t>AMS1117-3.3 GENERATED</t>
+  </si>
+  <si>
+    <t>https://www.chipdip.ru/product/ams1117-3.3</t>
+  </si>
+  <si>
+    <t>DD3</t>
+  </si>
+  <si>
+    <t>UART INTERFACE</t>
+  </si>
+  <si>
+    <t>CH340G</t>
+  </si>
+  <si>
+    <t>CH340G GENERATED</t>
+  </si>
+  <si>
+    <t>https://cdn.sparkfun.com/datasheets/Dev/Arduino/Other/CH340DS1.PDF</t>
+  </si>
+  <si>
+    <t>ZQ1</t>
   </si>
   <si>
     <t>Quartz resonator</t>
   </si>
   <si>
-    <t>QUARTZ TEMPORARY</t>
-  </si>
-  <si>
-    <t>DD2</t>
-  </si>
-  <si>
-    <t>DAC</t>
-  </si>
-  <si>
-    <t>AD9760ARUZ50</t>
-  </si>
-  <si>
-    <t>https://www.chipdip.ru/product/ad9760aruz50</t>
-  </si>
-  <si>
-    <t>DD6</t>
-  </si>
-  <si>
-    <t>FPGA</t>
-  </si>
-  <si>
-    <t>Altera II EPM240T100C3</t>
-  </si>
-  <si>
-    <t>QFP50P1600X1600X120-100N</t>
-  </si>
-  <si>
-    <t>https://eu.mouser.com/ProductDetail/Intel-Altera/EPM240T100C3?qs=jblrfmjbeiFZviQiVyzREw%3D%3D</t>
-  </si>
-  <si>
-    <t>DA1</t>
-  </si>
-  <si>
-    <t>Стабилизатор</t>
-  </si>
-  <si>
-    <t>AMS1117-3.3</t>
-  </si>
-  <si>
-    <t>AMS1117-3.3 GENERATED</t>
-  </si>
-  <si>
-    <t>https://www.chipdip.ru/product/ams1117-3.3</t>
-  </si>
-  <si>
-    <t>DD3</t>
-  </si>
-  <si>
-    <t>UART INTERFACE</t>
-  </si>
-  <si>
-    <t>CH340G</t>
-  </si>
-  <si>
-    <t>CH340G GENERATED</t>
-  </si>
-  <si>
-    <t>https://cdn.sparkfun.com/datasheets/Dev/Arduino/Other/CH340DS1.PDF</t>
+    <t>ECN-7U12000MAB143ZA3</t>
+  </si>
+  <si>
+    <t>ZQ2</t>
+  </si>
+  <si>
+    <t>ECN-7U16000M9Z143ZA3</t>
   </si>
   <si>
     <t>DD4</t>
@@ -168,7 +189,7 @@
     <t>KLS1-SMA002-B</t>
   </si>
   <si>
-    <t/>
+    <t>UHF</t>
   </si>
   <si>
     <t>https://www.chipdip.ru/product/kls1-sma002-b-sma-jr</t>
@@ -619,15 +640,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12AEBFDE-FAA0-4666-8F4C-C5F8723ADF62}">
-  <dimension ref="A1:E16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F1D777-35CE-42E4-B5B1-9E17D02CEEF0}">
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" customWidth="1"/>
-    <col min="2" max="4" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="40.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
     <col min="5" max="5" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -690,98 +713,98 @@
         <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -789,118 +812,152 @@
         <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>71</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
